--- a/Archivos/iris_completa.xlsx
+++ b/Archivos/iris_completa.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/DCI_Matematicas_para_Investigacion/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37B684-387C-9B4D-802D-DA22F0A3FFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57011D-211E-744A-8F58-5AF85866F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="760" windowWidth="25440" windowHeight="12400" activeTab="1" xr2:uid="{8E1A4D5E-8DF1-B14B-8477-9BF401D9D16A}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="12220" activeTab="3" xr2:uid="{8E1A4D5E-8DF1-B14B-8477-9BF401D9D16A}"/>
   </bookViews>
   <sheets>
     <sheet name="iris_completa" sheetId="1" r:id="rId1"/>
-    <sheet name="Atributo1-Q1" sheetId="2" r:id="rId2"/>
+    <sheet name="Atributo1-Q" sheetId="2" r:id="rId2"/>
+    <sheet name="Atributo2-Q" sheetId="3" r:id="rId3"/>
+    <sheet name="iris_completa-DetectOutliers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="39">
   <si>
     <t>atributo1</t>
   </si>
@@ -125,12 +127,39 @@
   <si>
     <t>PARA Q3</t>
   </si>
+  <si>
+    <t xml:space="preserve">IQR= </t>
+  </si>
+  <si>
+    <t>Q3-Q1=</t>
+  </si>
+  <si>
+    <t>LEVE</t>
+  </si>
+  <si>
+    <t>LIM INFERIOR</t>
+  </si>
+  <si>
+    <t>LIM SUPERIOR</t>
+  </si>
+  <si>
+    <t>OUTLIERS</t>
+  </si>
+  <si>
+    <t>TRATAMIENTO DE OUTLIERS</t>
+  </si>
+  <si>
+    <t>1.- ELIMINAR LA FILA COMPLETA</t>
+  </si>
+  <si>
+    <t>2.- IMPUTACIÓN DE DATOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,8 +294,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -619,7 +668,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,6 +680,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,6 +745,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>681567</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97427351-F078-CDC9-AFDB-0C16EE098492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5746750" y="4878916"/>
+          <a:ext cx="7772400" cy="2456561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,7 +1116,7 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4049,8 +4154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8A5EBE-0695-4E4D-8891-0F972CD6B891}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5892,4 +5997,5629 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DF2387-1705-B045-A93B-033547FD62ED}">
+  <dimension ref="A1:S151"/>
+  <sheetViews>
+    <sheetView topLeftCell="A143" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>145</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>IF(OR(C2&lt;H$28,C2&gt;H$30),"OUTLIER","NORMAL")</f>
+        <v>OUTLIER</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D66" si="0">IF(OR(C3&lt;H$28,C3&gt;H$30),"OUTLIER","NORMAL")</f>
+        <v>NORMAL</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <f>COUNT(C2:C151)</f>
+        <v>150</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>150</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <f>G6*(G7+1)/4</f>
+        <v>37.75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1">
+        <f>M6*(M7+1)/4</f>
+        <v>75.5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="1">
+        <f>R6*(R7+1)/4</f>
+        <v>113.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>98</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>3.3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>3.3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3">
+        <f>G12+G13*(G15-G12)</f>
+        <v>2.8</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="3">
+        <f>M12+M13*(M15-M12)</f>
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="3">
+        <f>R12+R13*(R15-R12)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>149</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5">
+        <f>R18-G18</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>130</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>133</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="6">
+        <f>G18-H26*I23</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="6">
+        <f>R18+H26*I23</f>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>136</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>144</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>118</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>121</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>85</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>86</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>95</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>113</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>148</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>35</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>60</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" ref="D67:D130" si="1">IF(OR(C67&lt;H$28,C67&gt;H$30),"OUTLIER","NORMAL")</f>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>74</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>92</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>94</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>102</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>103</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>105</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>112</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>116</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>122</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>128</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>132</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>134</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>140</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>142</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>146</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>29</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>31</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>33</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>47</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>53</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>59</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>69</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>78</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>87</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>107</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>126</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>46</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>48</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>51</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>64</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>67</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>68</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>71</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>114</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>138</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>43</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>66</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>83</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>110</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>137</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>21</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>40</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>45</v>
+      </c>
+      <c r="C119" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>56</v>
+      </c>
+      <c r="C120" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>61</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>81</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>82</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>106</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>131</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>141</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>143</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>38</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <v>44</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <v>52</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D131" s="1" t="str">
+        <f t="shared" ref="D131:D151" si="2">IF(OR(C131&lt;H$28,C131&gt;H$30),"OUTLIER","NORMAL")</f>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <v>62</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <v>72</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <v>42</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <v>79</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <v>150</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <v>20</v>
+      </c>
+      <c r="C137" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <v>41</v>
+      </c>
+      <c r="C138" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <v>65</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <v>23</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <v>39</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <v>63</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>73</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <v>127</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <v>37</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <v>80</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <v>36</v>
+      </c>
+      <c r="C148" s="1">
+        <v>4</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
+        <v>148</v>
+      </c>
+      <c r="B149" s="7">
+        <v>57</v>
+      </c>
+      <c r="C149" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D149" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7">
+        <v>58</v>
+      </c>
+      <c r="C150" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="D150" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
+        <v>150</v>
+      </c>
+      <c r="B151" s="7">
+        <v>135</v>
+      </c>
+      <c r="C151" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D151" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C151">
+    <sortCondition ref="C2:C151"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE25847-91AF-7E48-9AD5-E7B1A5BF5A71}">
+  <dimension ref="A1:N151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>57</v>
+      </c>
+      <c r="J3" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>58</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>135</v>
+      </c>
+      <c r="J5" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>145</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="C59" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D90" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D96" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D101" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D109" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D111" s="1">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D114" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D118" s="1">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D119" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E119" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D120" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D122" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D126" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D134" s="1">
+        <v>4</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="C136" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D137" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C138" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D139" s="1">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D140" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>5</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
+      <c r="B146" s="7">
+        <v>5</v>
+      </c>
+      <c r="C146" s="4">
+        <v>2</v>
+      </c>
+      <c r="D146" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="E146" s="7">
+        <v>1</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D148" s="1">
+        <v>4</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D149" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C151" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D151" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Archivos/iris_completa.xlsx
+++ b/Archivos/iris_completa.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/DCI_Matematicas_para_Investigacion/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57011D-211E-744A-8F58-5AF85866F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A615E01-4022-AF4C-8768-78886955729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="12220" activeTab="3" xr2:uid="{8E1A4D5E-8DF1-B14B-8477-9BF401D9D16A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12340" activeTab="4" xr2:uid="{8E1A4D5E-8DF1-B14B-8477-9BF401D9D16A}"/>
   </bookViews>
   <sheets>
     <sheet name="iris_completa" sheetId="1" r:id="rId1"/>
     <sheet name="Atributo1-Q" sheetId="2" r:id="rId2"/>
     <sheet name="Atributo2-Q" sheetId="3" r:id="rId3"/>
     <sheet name="iris_completa-DetectOutliers" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejemplo Interpolacion Lineal" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="60">
   <si>
     <t>atributo1</t>
   </si>
@@ -154,12 +155,75 @@
   <si>
     <t>2.- IMPUTACIÓN DE DATOS</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>indice donde se busca encontrar el valor</t>
+  </si>
+  <si>
+    <t>el valor que se busca encontrar</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>indice del valor anterior al que se busca</t>
+  </si>
+  <si>
+    <t>indice del valor sucesor al que se busca</t>
+  </si>
+  <si>
+    <t>el valor del indice anterior al indice del valor que se busca</t>
+  </si>
+  <si>
+    <t>el valor del indice sucedor al indice del valor que se busca</t>
+  </si>
+  <si>
+    <t>0          10.0          1</t>
+  </si>
+  <si>
+    <t>1           8.0          2</t>
+  </si>
+  <si>
+    <t>2           9.0          3</t>
+  </si>
+  <si>
+    <t>3          10.0          4</t>
+  </si>
+  <si>
+    <t>4           8.5          5</t>
+  </si>
+  <si>
+    <t>5           7.0          6</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>y=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +370,54 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="54"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -668,7 +780,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,6 +801,21 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -793,6 +920,390 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182682</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9612923" cy="1780359"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF77BA9-EF98-2C8B-1855-EF73EB3761C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1602154" y="592990"/>
+              <a:ext cx="9612923" cy="1780359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑦</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑦</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:num>
+                      <m:den>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF77BA9-EF98-2C8B-1855-EF73EB3761C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1602154" y="592990"/>
+              <a:ext cx="9612923" cy="1780359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦= 𝑦_1+((𝑦_2−𝑦_1 ))/((𝑥_2−𝑥_1 ) )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙(𝑥−𝑥_1 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6003,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DF2387-1705-B045-A93B-033547FD62ED}">
   <dimension ref="A1:S151"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6037,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f>IF(OR(C2&lt;H$28,C2&gt;H$30),"OUTLIER","NORMAL")</f>
+        <f t="shared" ref="D2:D33" si="0">IF(OR(C2&lt;H$28,C2&gt;H$30),"OUTLIER","NORMAL")</f>
         <v>OUTLIER</v>
       </c>
     </row>
@@ -6052,7 +6563,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(OR(C3&lt;H$28,C3&gt;H$30),"OUTLIER","NORMAL")</f>
+        <f t="shared" si="0"/>
         <v>NORMAL</v>
       </c>
       <c r="F3" t="s">
@@ -6714,7 +7225,7 @@
         <v>2.7</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D34:D65" si="1">IF(OR(C34&lt;H$28,C34&gt;H$30),"OUTLIER","NORMAL")</f>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6729,7 +7240,7 @@
         <v>2.8</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6744,7 +7255,7 @@
         <v>2.8</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6759,7 +7270,7 @@
         <v>2.8</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6774,7 +7285,7 @@
         <v>2.8</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6789,7 +7300,7 @@
         <v>2.8</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6804,7 +7315,7 @@
         <v>2.8</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6819,7 +7330,7 @@
         <v>2.8</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6834,7 +7345,7 @@
         <v>2.8</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6849,7 +7360,7 @@
         <v>2.8</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6864,7 +7375,7 @@
         <v>2.8</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6879,7 +7390,7 @@
         <v>2.8</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6894,7 +7405,7 @@
         <v>2.8</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6909,7 +7420,7 @@
         <v>2.8</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6924,7 +7435,7 @@
         <v>2.8</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6939,7 +7450,7 @@
         <v>2.9</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6954,7 +7465,7 @@
         <v>2.9</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6969,7 +7480,7 @@
         <v>2.9</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6984,7 +7495,7 @@
         <v>2.9</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -6999,7 +7510,7 @@
         <v>2.9</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7014,7 +7525,7 @@
         <v>2.9</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7029,7 +7540,7 @@
         <v>2.9</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7044,7 +7555,7 @@
         <v>2.9</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7059,7 +7570,7 @@
         <v>2.9</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7074,7 +7585,7 @@
         <v>2.9</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7089,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7104,7 +7615,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7119,7 +7630,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7134,7 +7645,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7149,7 +7660,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7164,7 +7675,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7179,7 +7690,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7194,7 +7705,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D66:D97" si="2">IF(OR(C66&lt;H$28,C66&gt;H$30),"OUTLIER","NORMAL")</f>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7209,7 +7720,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" ref="D67:D130" si="1">IF(OR(C67&lt;H$28,C67&gt;H$30),"OUTLIER","NORMAL")</f>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7224,7 +7735,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7239,7 +7750,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7254,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7269,7 +7780,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7284,7 +7795,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7299,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7314,7 +7825,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7329,7 +7840,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7344,7 +7855,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7359,7 +7870,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7374,7 +7885,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7389,7 +7900,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7404,7 +7915,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7419,7 +7930,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7434,7 +7945,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7449,7 +7960,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7464,7 +7975,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7479,7 +7990,7 @@
         <v>3.1</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7494,7 +8005,7 @@
         <v>3.1</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7509,7 +8020,7 @@
         <v>3.1</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7524,7 +8035,7 @@
         <v>3.1</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7539,7 +8050,7 @@
         <v>3.1</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7554,7 +8065,7 @@
         <v>3.1</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7569,7 +8080,7 @@
         <v>3.1</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7584,7 +8095,7 @@
         <v>3.1</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7599,7 +8110,7 @@
         <v>3.1</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7614,7 +8125,7 @@
         <v>3.1</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7629,7 +8140,7 @@
         <v>3.1</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7644,7 +8155,7 @@
         <v>3.1</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7659,7 +8170,7 @@
         <v>3.2</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7674,7 +8185,7 @@
         <v>3.2</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D98:D129" si="3">IF(OR(C98&lt;H$28,C98&gt;H$30),"OUTLIER","NORMAL")</f>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7689,7 +8200,7 @@
         <v>3.2</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7704,7 +8215,7 @@
         <v>3.2</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7719,7 +8230,7 @@
         <v>3.2</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7734,7 +8245,7 @@
         <v>3.2</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7749,7 +8260,7 @@
         <v>3.2</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7764,7 +8275,7 @@
         <v>3.2</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7779,7 +8290,7 @@
         <v>3.2</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7794,7 +8305,7 @@
         <v>3.2</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7809,7 +8320,7 @@
         <v>3.2</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7824,7 +8335,7 @@
         <v>3.2</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7839,7 +8350,7 @@
         <v>3.2</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7854,7 +8365,7 @@
         <v>3.3</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7869,7 +8380,7 @@
         <v>3.3</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7884,7 +8395,7 @@
         <v>3.3</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7899,7 +8410,7 @@
         <v>3.3</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7914,7 +8425,7 @@
         <v>3.3</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7929,7 +8440,7 @@
         <v>3.3</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7944,7 +8455,7 @@
         <v>3.4</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7959,7 +8470,7 @@
         <v>3.4</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7974,7 +8485,7 @@
         <v>3.4</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -7989,7 +8500,7 @@
         <v>3.4</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8004,7 +8515,7 @@
         <v>3.4</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8019,7 +8530,7 @@
         <v>3.4</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8034,7 +8545,7 @@
         <v>3.4</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8049,7 +8560,7 @@
         <v>3.4</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8064,7 +8575,7 @@
         <v>3.4</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8079,7 +8590,7 @@
         <v>3.4</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8094,7 +8605,7 @@
         <v>3.4</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8109,7 +8620,7 @@
         <v>3.4</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8124,7 +8635,7 @@
         <v>3.5</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8139,7 +8650,7 @@
         <v>3.5</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8154,7 +8665,7 @@
         <v>3.5</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D130:D161" si="4">IF(OR(C130&lt;H$28,C130&gt;H$30),"OUTLIER","NORMAL")</f>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8169,7 +8680,7 @@
         <v>3.5</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f t="shared" ref="D131:D151" si="2">IF(OR(C131&lt;H$28,C131&gt;H$30),"OUTLIER","NORMAL")</f>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8184,7 +8695,7 @@
         <v>3.5</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8199,7 +8710,7 @@
         <v>3.5</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8214,7 +8725,7 @@
         <v>3.6</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8229,7 +8740,7 @@
         <v>3.6</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8244,7 +8755,7 @@
         <v>3.6</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8259,7 +8770,7 @@
         <v>3.7</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8274,7 +8785,7 @@
         <v>3.7</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8289,7 +8800,7 @@
         <v>3.7</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8304,7 +8815,7 @@
         <v>3.8</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8319,7 +8830,7 @@
         <v>3.8</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8334,7 +8845,7 @@
         <v>3.8</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8349,7 +8860,7 @@
         <v>3.8</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8364,7 +8875,7 @@
         <v>3.8</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8379,7 +8890,7 @@
         <v>3.8</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8394,7 +8905,7 @@
         <v>3.9</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8409,7 +8920,7 @@
         <v>3.9</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8424,7 +8935,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NORMAL</v>
       </c>
     </row>
@@ -8439,7 +8950,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D149" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>OUTLIER</v>
       </c>
     </row>
@@ -8454,7 +8965,7 @@
         <v>4.2</v>
       </c>
       <c r="D150" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>OUTLIER</v>
       </c>
     </row>
@@ -8469,7 +8980,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D151" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>OUTLIER</v>
       </c>
     </row>
@@ -8486,8 +8997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE25847-91AF-7E48-9AD5-E7B1A5BF5A71}">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8750,7 +9261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8769,7 +9280,7 @@
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8793,7 +9304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8812,11 +9323,11 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8835,7 +9346,7 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11622,4 +12133,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD64A19F-5E7F-3642-9EFD-6F1C4E637EDF}">
+  <dimension ref="C3:W24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:23" ht="32" x14ac:dyDescent="0.4">
+      <c r="O3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="13">
+        <v>3</v>
+      </c>
+      <c r="U3" s="10"/>
+      <c r="V3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" ht="32" x14ac:dyDescent="0.4">
+      <c r="O4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="13">
+        <v>4</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" ht="32" x14ac:dyDescent="0.4">
+      <c r="O5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="13">
+        <v>5</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" ht="32" x14ac:dyDescent="0.4">
+      <c r="O6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="3:23" ht="32" x14ac:dyDescent="0.4">
+      <c r="O7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="3:23" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="O8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="11">
+        <f>W3</f>
+        <v>10</v>
+      </c>
+      <c r="U8" s="11">
+        <f>W5-W3</f>
+        <v>-3</v>
+      </c>
+      <c r="V8" s="11">
+        <f>T4-T3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
+        <f>T5-T3</f>
+        <v>2</v>
+      </c>
+      <c r="V9" s="11"/>
+    </row>
+    <row r="10" spans="3:23" ht="32" x14ac:dyDescent="0.4">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="3:23" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="14">
+        <f>10+(-3/2)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" ht="32" x14ac:dyDescent="0.4">
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="15" spans="3:23" ht="93" x14ac:dyDescent="1.05">
+      <c r="C15" s="9"/>
+      <c r="D15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" ht="93" x14ac:dyDescent="1.05">
+      <c r="D16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="93" x14ac:dyDescent="1.05">
+      <c r="D19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="93" x14ac:dyDescent="1.05">
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="93" x14ac:dyDescent="1.05">
+      <c r="D23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="93" x14ac:dyDescent="1.05">
+      <c r="D24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>